--- a/data/covid_closures_by_state.xlsx
+++ b/data/covid_closures_by_state.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpancotti/Documents/GitHub/GoogleTrendsUINowcast/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE46288F-CD33-2E4A-837A-7DD6A14A3B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0E7EB1-E7A9-CF45-934B-BEDE37B3705C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="820" windowWidth="16620" windowHeight="14940" xr2:uid="{2E3C4A39-8A20-E24A-9F68-913CA19D2F72}"/>
   </bookViews>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD148692-B53F-0146-860F-EA659C5658BF}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,6 +1014,9 @@
       <c r="E5" s="1">
         <v>43909</v>
       </c>
+      <c r="F5" s="1">
+        <v>43925</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1437,6 +1440,9 @@
       <c r="E26" s="1">
         <v>43914</v>
       </c>
+      <c r="F26" s="1">
+        <v>43914</v>
+      </c>
       <c r="G26" t="s">
         <v>164</v>
       </c>
@@ -1457,6 +1463,9 @@
       <c r="E27" s="1">
         <v>43913</v>
       </c>
+      <c r="F27" s="1">
+        <v>43927</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1632,8 +1641,9 @@
         <v>43906</v>
       </c>
       <c r="E36" s="1">
-        <v>43910</v>
-      </c>
+        <v>43909</v>
+      </c>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
